--- a/templates/Final/Crosstab_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Crosstab_Config_Template_Annotated_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E51092-9DC4-8944-B9AF-2ADA6F77380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893CD580-6A5A-964E-BD9D-732252BA1C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23740" windowHeight="25340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23740" windowHeight="25340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Crosstab Configuration Template - Instructions</t>
   </si>
   <si>
-    <t>Created: 2025-12-02</t>
-  </si>
-  <si>
     <t>OVERVIEW</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>1-1000</t>
   </si>
   <si>
-    <t>Minimum base for ranking comparisons</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -599,13 +593,30 @@
   </si>
   <si>
     <t>Config settings must be 2 columns only - settings, value . The values are examples - change to match project. Do not copy this row.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Minimum base for ranking comparisons : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>This is not implemented and has no effect</t>
+    </r>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,12 +628,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF366092"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -658,6 +663,18 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -720,56 +737,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1084,74 +1100,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1161,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1174,779 +1196,779 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="4">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="4">
+        <v>80</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="4">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="D49" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="b">
+      <c r="C50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="5" t="b">
+      <c r="C54" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="5" t="b">
+      <c r="D54" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="5">
-        <v>30</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="5">
-        <v>5</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="5">
-        <v>5</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="5">
-        <v>80</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="5">
-        <v>10</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B49" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="5">
-        <v>1</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="12" t="s">
+      <c r="C60" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="D60" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="B60" s="5">
-        <v>1</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1965,215 +1987,214 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="H2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="C5" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="E5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="D6" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="J6" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="B7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="J8" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2198,78 +2219,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="C5" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="23" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="23" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="23" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="B8" s="18" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="C8" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
